--- a/data/y.xlsx
+++ b/data/y.xlsx
@@ -648,7 +648,7 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>90774</v>
+        <v>93339</v>
       </c>
       <c r="C5">
         <v>104652</v>
